--- a/data/trans_orig/Q17F_D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Habitat-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>13.78975846059632</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>15.2484620591372</v>
+        <v>15.24846205913721</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.26962168466316</v>
+        <v>7.143794456143783</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.008329738845623</v>
+        <v>6.626190208953187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.017754554760838</v>
+        <v>8.455907454446258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.13590430319283</v>
+        <v>10.65528751880623</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.202499311337525</v>
+        <v>3.142456251190115</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.405363213348688</v>
+        <v>4.339876024351972</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.557519287898472</v>
+        <v>8.408776523192239</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>10.05050990604805</v>
+        <v>10.12262262539951</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.096950309897455</v>
+        <v>5.390992160374007</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.292922551828258</v>
+        <v>6.06587928309041</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9.794966066061255</v>
+        <v>9.727649820950852</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>11.46602337104522</v>
+        <v>11.57733357115336</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25.66603279137005</v>
+        <v>24.599304968808</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.05723175146311</v>
+        <v>15.94246312630424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.3449873136601</v>
+        <v>20.77352230301458</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27.4421908748054</v>
+        <v>28.1734556219424</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.193881989023608</v>
+        <v>7.101120430602108</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.34161033828412</v>
+        <v>11.37715120015674</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>33.11001363428055</v>
+        <v>34.12386058919969</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>23.2277076784085</v>
+        <v>22.11785160167202</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.04136721648401</v>
+        <v>12.24795793258013</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11.59818449497489</v>
+        <v>11.54846582773061</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24.15240355185266</v>
+        <v>24.06815289017686</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>21.41323960887834</v>
+        <v>21.76399444964233</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>10.52772675395027</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>22.08072625184147</v>
+        <v>22.08072625184148</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>8.256535460853966</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.225929095335783</v>
+        <v>4.115706435599282</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.755710662717526</v>
+        <v>6.577437573352917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.554728783440775</v>
+        <v>4.409227475228179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10.52372900357369</v>
+        <v>10.29879295156066</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.847794524930538</v>
+        <v>6.07506927457568</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.605925444105883</v>
+        <v>7.500491709897819</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.183045530705249</v>
+        <v>6.968665324553261</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.22254948578442</v>
+        <v>16.34692821477544</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5.957319631651354</v>
+        <v>5.922681157378259</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.710821182195875</v>
+        <v>7.664781697956058</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6.497136358474231</v>
+        <v>6.495996521534507</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>14.98654433891715</v>
+        <v>15.03324065507941</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.32297655471369</v>
+        <v>11.56859909249465</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.10481613107428</v>
+        <v>13.25497053582582</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.739806061581859</v>
+        <v>9.532576743489942</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24.57746921329745</v>
+        <v>23.89466120701691</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>15.12847304950504</v>
+        <v>16.04362402502559</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>16.42218612655299</v>
+        <v>17.20857040628036</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>16.64024571179094</v>
+        <v>16.6942494842223</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>30.41580994365866</v>
+        <v>29.72531966008084</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>12.37908837563901</v>
+        <v>12.78512731002948</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13.87236307854263</v>
+        <v>13.88473686240094</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.15437975400141</v>
+        <v>12.38096237002396</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>25.38518676516169</v>
+        <v>24.18115914309569</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.117415614472248</v>
+        <v>8.040775537869807</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.117440693125674</v>
+        <v>8.395152539884261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.800443519413072</v>
+        <v>10.32811405693908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.00754481073391</v>
+        <v>16.96755143692907</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>9.215501937939784</v>
+        <v>9.028209950142482</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.221470240670856</v>
+        <v>7.593605975702824</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>11.93439024654082</v>
+        <v>11.90714897273076</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>19.32550799609498</v>
+        <v>18.62847408968071</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>9.444573069695595</v>
+        <v>9.768875488099432</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8.580573312292657</v>
+        <v>8.465575651467498</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11.90492800761206</v>
+        <v>11.86369455190664</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>19.84493335398197</v>
+        <v>20.07361287800033</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.38315613416857</v>
+        <v>16.07774302534242</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.44062931553161</v>
+        <v>18.71199644911716</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24.1503853933865</v>
+        <v>24.71738455847833</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47.41511160828441</v>
+        <v>48.31440065968398</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>20.96617467370949</v>
+        <v>20.54537714348588</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.48874518975561</v>
+        <v>17.56193103170457</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>22.34293237789064</v>
+        <v>22.36935139506808</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>35.33807747634081</v>
+        <v>34.85268315876495</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.62733204983531</v>
+        <v>17.14455255303525</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16.05310830012277</v>
+        <v>15.95304041862431</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19.93677570694816</v>
+        <v>20.15378458267629</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>35.40348633494654</v>
+        <v>34.83121528663267</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>7.852924472610558</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35.5433854162942</v>
+        <v>35.54338541629421</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>9.138270795658066</v>
@@ -1089,7 +1089,7 @@
         <v>15.04427486466095</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>26.10602269545799</v>
+        <v>26.10602269545798</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>10.16611324556758</v>
@@ -1101,7 +1101,7 @@
         <v>12.04623529623472</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>29.98400662089393</v>
+        <v>29.98400662089392</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.783156816876899</v>
+        <v>7.50451284752674</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.760186335979999</v>
+        <v>5.425445931129568</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.249167952390936</v>
+        <v>5.317760636705845</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26.10692577441219</v>
+        <v>25.26761745732345</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.459478616062964</v>
+        <v>6.706604685744801</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.315846107643822</v>
+        <v>7.586224406726377</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>10.32861155736727</v>
+        <v>9.961401421078834</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>21.16269453582341</v>
+        <v>21.27109183520465</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.850349297133675</v>
+        <v>7.863241194076267</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.491250436672519</v>
+        <v>7.407567738448658</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8.822990085275165</v>
+        <v>8.884709195587387</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>24.96472656488814</v>
+        <v>24.77630957340633</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.95221417921626</v>
+        <v>22.88937113567749</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.15240870860262</v>
+        <v>14.31905064369365</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.38709441140555</v>
+        <v>12.14936923002416</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>56.26530969117833</v>
+        <v>53.8665787811894</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>12.6004085601728</v>
+        <v>13.33028078486027</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.12022541371297</v>
+        <v>14.372536684105</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>26.11167290536012</v>
+        <v>27.32636514935739</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>33.64747861648215</v>
+        <v>34.41913580335817</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>15.0515319355214</v>
+        <v>15.07040396290158</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13.39362319603308</v>
+        <v>12.72324738944308</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19.38271229903874</v>
+        <v>18.87948529751129</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>38.26550629909571</v>
+        <v>37.25526672413624</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.157249456185424</v>
+        <v>8.353997677068815</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.186827847055328</v>
+        <v>8.103430670649674</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.051331729574056</v>
+        <v>8.03804591626683</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19.34864180671803</v>
+        <v>19.94192123317367</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.377968393914236</v>
+        <v>7.432221500075271</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.009355160662645</v>
+        <v>8.243455848196296</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>11.12701346591559</v>
+        <v>11.16807501410467</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>19.65556435526091</v>
+        <v>19.58288469931536</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.268219158307581</v>
+        <v>8.204682610333693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8.591873533928267</v>
+        <v>8.602087026696415</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10.2420242739705</v>
+        <v>10.37801868801665</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>20.64043939449181</v>
+        <v>20.50092713014964</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.16649839623425</v>
+        <v>14.65000109523315</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.33080600348848</v>
+        <v>12.08761357032321</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.30005563633645</v>
+        <v>12.3326336462629</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31.32963223060841</v>
+        <v>31.10210188154314</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.55237456156902</v>
+        <v>11.40409678111371</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.35355836738523</v>
+        <v>12.24352036450894</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.02108357695436</v>
+        <v>18.22388609018391</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>26.24076987297981</v>
+        <v>26.38448133874154</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.42842296032479</v>
+        <v>11.61099613529769</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11.4644837842398</v>
+        <v>11.6119830765132</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14.56222200730444</v>
+        <v>14.61431997727043</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>26.80940995207775</v>
+        <v>26.65877240562641</v>
       </c>
     </row>
     <row r="19">
